--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Robo4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H2">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.33145033333333</v>
+        <v>59.08793033333334</v>
       </c>
       <c r="N2">
-        <v>147.994351</v>
+        <v>177.263791</v>
       </c>
       <c r="O2">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="P2">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="Q2">
-        <v>4.826112229926777</v>
+        <v>12.76413531865311</v>
       </c>
       <c r="R2">
-        <v>43.435010069341</v>
+        <v>114.877217867878</v>
       </c>
       <c r="S2">
-        <v>0.01144374062914415</v>
+        <v>0.02482016143326627</v>
       </c>
       <c r="T2">
-        <v>0.01144374062914415</v>
+        <v>0.02482016143326628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H3">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04967466666666667</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N3">
-        <v>0.149024</v>
+        <v>0.092642</v>
       </c>
       <c r="O3">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="P3">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="Q3">
-        <v>0.004859689198222222</v>
+        <v>0.006670821026222223</v>
       </c>
       <c r="R3">
-        <v>0.043737202784</v>
+        <v>0.060037389236</v>
       </c>
       <c r="S3">
-        <v>1.152335877683316E-05</v>
+        <v>1.297156843216026E-05</v>
       </c>
       <c r="T3">
-        <v>1.152335877683316E-05</v>
+        <v>1.297156843216026E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.296819666666666</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H4">
-        <v>24.890459</v>
+        <v>0.648058</v>
       </c>
       <c r="I4">
-        <v>0.9715009272022777</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J4">
-        <v>0.9715009272022777</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>49.33145033333333</v>
+        <v>0.05196466666666667</v>
       </c>
       <c r="N4">
-        <v>147.994351</v>
+        <v>0.155894</v>
       </c>
       <c r="O4">
-        <v>0.9989940555897285</v>
+        <v>0.00087772591751267</v>
       </c>
       <c r="P4">
-        <v>0.9989940555897285</v>
+        <v>0.0008777259175126701</v>
       </c>
       <c r="Q4">
-        <v>409.2941473107898</v>
+        <v>0.01122537265022222</v>
       </c>
       <c r="R4">
-        <v>3683.647325797108</v>
+        <v>0.101028353852</v>
       </c>
       <c r="S4">
-        <v>0.970523651274985</v>
+        <v>2.182800122151067E-05</v>
       </c>
       <c r="T4">
-        <v>0.970523651274985</v>
+        <v>2.182800122151068E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.296819666666666</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H5">
-        <v>24.890459</v>
+        <v>0.648058</v>
       </c>
       <c r="I5">
-        <v>0.9715009272022777</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J5">
-        <v>0.9715009272022777</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04967466666666667</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N5">
-        <v>0.149024</v>
+        <v>0.098926</v>
       </c>
       <c r="O5">
-        <v>0.001005944410271468</v>
+        <v>0.0005569804746549476</v>
       </c>
       <c r="P5">
-        <v>0.001005944410271468</v>
+        <v>0.0005569804746549476</v>
       </c>
       <c r="Q5">
-        <v>0.4121417513351111</v>
+        <v>0.007123309523111112</v>
       </c>
       <c r="R5">
-        <v>3.709275762015999</v>
+        <v>0.06410978570800001</v>
       </c>
       <c r="S5">
-        <v>0.00097727592729268</v>
+        <v>1.38514429602112E-05</v>
       </c>
       <c r="T5">
-        <v>0.00097727592729268</v>
+        <v>1.38514429602112E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.142734</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H6">
-        <v>0.428202</v>
+        <v>24.890459</v>
       </c>
       <c r="I6">
-        <v>0.0167131767248595</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J6">
-        <v>0.0167131767248595</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +806,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.33145033333333</v>
+        <v>59.08793033333334</v>
       </c>
       <c r="N6">
-        <v>147.994351</v>
+        <v>177.263791</v>
       </c>
       <c r="O6">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="P6">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="Q6">
-        <v>7.041275231877999</v>
+        <v>490.2419024522299</v>
       </c>
       <c r="R6">
-        <v>63.37147708690199</v>
+        <v>4412.177122070069</v>
       </c>
       <c r="S6">
-        <v>0.01669636419815525</v>
+        <v>0.953286913406046</v>
       </c>
       <c r="T6">
-        <v>0.01669636419815525</v>
+        <v>0.9532869134060462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.142734</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H7">
-        <v>0.428202</v>
+        <v>24.890459</v>
       </c>
       <c r="I7">
-        <v>0.0167131767248595</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J7">
-        <v>0.0167131767248595</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.04967466666666667</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N7">
-        <v>0.149024</v>
+        <v>0.092642</v>
       </c>
       <c r="O7">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="P7">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="Q7">
-        <v>0.007090263871999999</v>
+        <v>0.2562113225197777</v>
       </c>
       <c r="R7">
-        <v>0.06381237484799999</v>
+        <v>2.305901902678</v>
       </c>
       <c r="S7">
-        <v>1.681252670425163E-05</v>
+        <v>0.0004982089446104811</v>
       </c>
       <c r="T7">
-        <v>1.681252670425163E-05</v>
+        <v>0.0004982089446104812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +903,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.002823666666666667</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H8">
-        <v>0.008470999999999999</v>
+        <v>24.890459</v>
       </c>
       <c r="I8">
-        <v>0.0003306320849418846</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J8">
-        <v>0.0003306320849418846</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>49.33145033333333</v>
+        <v>0.05196466666666667</v>
       </c>
       <c r="N8">
-        <v>147.994351</v>
+        <v>0.155894</v>
       </c>
       <c r="O8">
-        <v>0.9989940555897285</v>
+        <v>0.00087772591751267</v>
       </c>
       <c r="P8">
-        <v>0.9989940555897285</v>
+        <v>0.0008777259175126701</v>
       </c>
       <c r="Q8">
-        <v>0.1392955719245556</v>
+        <v>0.4311414683717777</v>
       </c>
       <c r="R8">
-        <v>1.253660147321</v>
+        <v>3.880273215346</v>
       </c>
       <c r="S8">
-        <v>0.0003302994874441809</v>
+        <v>0.0008383647288606284</v>
       </c>
       <c r="T8">
-        <v>0.0003302994874441809</v>
+        <v>0.0008383647288606287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +965,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.296819666666666</v>
+      </c>
+      <c r="H9">
+        <v>24.890459</v>
+      </c>
+      <c r="I9">
+        <v>0.9551554900377276</v>
+      </c>
+      <c r="J9">
+        <v>0.9551554900377278</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.098926</v>
+      </c>
+      <c r="O9">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="P9">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="Q9">
+        <v>0.2735903941148889</v>
+      </c>
+      <c r="R9">
+        <v>2.462313547034</v>
+      </c>
+      <c r="S9">
+        <v>0.0005320029582104926</v>
+      </c>
+      <c r="T9">
+        <v>0.0005320029582104927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.173491</v>
+      </c>
+      <c r="H10">
+        <v>0.520473</v>
+      </c>
+      <c r="I10">
+        <v>0.01997281943922393</v>
+      </c>
+      <c r="J10">
+        <v>0.01997281943922393</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>59.08793033333334</v>
+      </c>
+      <c r="N10">
+        <v>177.263791</v>
+      </c>
+      <c r="O10">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="P10">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="Q10">
+        <v>10.25122412146033</v>
+      </c>
+      <c r="R10">
+        <v>92.26101709314301</v>
+      </c>
+      <c r="S10">
+        <v>0.01993374648821</v>
+      </c>
+      <c r="T10">
+        <v>0.01993374648821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.173491</v>
+      </c>
+      <c r="H11">
+        <v>0.520473</v>
+      </c>
+      <c r="I11">
+        <v>0.01997281943922393</v>
+      </c>
+      <c r="J11">
+        <v>0.01997281943922393</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.002823666666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.008470999999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.0003306320849418846</v>
-      </c>
-      <c r="J9">
-        <v>0.0003306320849418846</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.04967466666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.149024</v>
-      </c>
-      <c r="O9">
-        <v>0.001005944410271468</v>
-      </c>
-      <c r="P9">
-        <v>0.001005944410271468</v>
-      </c>
-      <c r="Q9">
-        <v>0.0001402647004444444</v>
-      </c>
-      <c r="R9">
-        <v>0.001262382304</v>
-      </c>
-      <c r="S9">
-        <v>3.325974977036901E-07</v>
-      </c>
-      <c r="T9">
-        <v>3.325974977036901E-07</v>
+      <c r="M11">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.092642</v>
+      </c>
+      <c r="O11">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="P11">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="Q11">
+        <v>0.005357517740666666</v>
+      </c>
+      <c r="R11">
+        <v>0.04821765966599999</v>
+      </c>
+      <c r="S11">
+        <v>1.041781929486519E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.041781929486519E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.173491</v>
+      </c>
+      <c r="H12">
+        <v>0.520473</v>
+      </c>
+      <c r="I12">
+        <v>0.01997281943922393</v>
+      </c>
+      <c r="J12">
+        <v>0.01997281943922393</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05196466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.155894</v>
+      </c>
+      <c r="O12">
+        <v>0.00087772591751267</v>
+      </c>
+      <c r="P12">
+        <v>0.0008777259175126701</v>
+      </c>
+      <c r="Q12">
+        <v>0.009015401984666665</v>
+      </c>
+      <c r="R12">
+        <v>0.081138617862</v>
+      </c>
+      <c r="S12">
+        <v>1.753066126760771E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.753066126760772E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.173491</v>
+      </c>
+      <c r="H13">
+        <v>0.520473</v>
+      </c>
+      <c r="I13">
+        <v>0.01997281943922393</v>
+      </c>
+      <c r="J13">
+        <v>0.01997281943922393</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.098926</v>
+      </c>
+      <c r="O13">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="P13">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="Q13">
+        <v>0.005720923555333333</v>
+      </c>
+      <c r="R13">
+        <v>0.051488311998</v>
+      </c>
+      <c r="S13">
+        <v>1.112447045145651E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.112447045145651E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H14">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I14">
+        <v>2.878077168156263E-06</v>
+      </c>
+      <c r="J14">
+        <v>2.878077168156264E-06</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>59.08793033333334</v>
+      </c>
+      <c r="N14">
+        <v>177.263791</v>
+      </c>
+      <c r="O14">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="P14">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="Q14">
+        <v>0.001477198258333333</v>
+      </c>
+      <c r="R14">
+        <v>0.013294784325</v>
+      </c>
+      <c r="S14">
+        <v>2.872446767874126E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.872446767874127E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H15">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I15">
+        <v>2.878077168156263E-06</v>
+      </c>
+      <c r="J15">
+        <v>2.878077168156264E-06</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.092642</v>
+      </c>
+      <c r="O15">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="P15">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="Q15">
+        <v>7.720166666666666E-07</v>
+      </c>
+      <c r="R15">
+        <v>6.94815E-06</v>
+      </c>
+      <c r="S15">
+        <v>1.501204571831563E-09</v>
+      </c>
+      <c r="T15">
+        <v>1.501204571831564E-09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H16">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I16">
+        <v>2.878077168156263E-06</v>
+      </c>
+      <c r="J16">
+        <v>2.878077168156264E-06</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05196466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.155894</v>
+      </c>
+      <c r="O16">
+        <v>0.00087772591751267</v>
+      </c>
+      <c r="P16">
+        <v>0.0008777259175126701</v>
+      </c>
+      <c r="Q16">
+        <v>1.299116666666666E-06</v>
+      </c>
+      <c r="R16">
+        <v>1.169205E-05</v>
+      </c>
+      <c r="S16">
+        <v>2.526162923092223E-09</v>
+      </c>
+      <c r="T16">
+        <v>2.526162923092224E-09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H17">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I17">
+        <v>2.878077168156263E-06</v>
+      </c>
+      <c r="J17">
+        <v>2.878077168156264E-06</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.098926</v>
+      </c>
+      <c r="O17">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="P17">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="Q17">
+        <v>8.243833333333333E-07</v>
+      </c>
+      <c r="R17">
+        <v>7.41945E-06</v>
+      </c>
+      <c r="S17">
+        <v>1.603032787213243E-09</v>
+      </c>
+      <c r="T17">
+        <v>1.603032787213243E-09</v>
       </c>
     </row>
   </sheetData>
